--- a/tests/ExcelImport/workbooks/participant-group-importer-without-webhook-column.xlsx
+++ b/tests/ExcelImport/workbooks/participant-group-importer-without-webhook-column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jok/Projects/covid-symfony-prototype/tests/ExcelImport/workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7264E-2EF3-0C4F-90A4-7B86D1A4E686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2638B80-22C4-C24C-A64C-6FA3A1F6AEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="460" windowWidth="22680" windowHeight="17540" xr2:uid="{A40D6FB2-8C03-E045-B2A6-5AEE355AAA37}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Not Used</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>FourJ</t>
+  </si>
+  <si>
+    <t>Is Active?</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,7 +457,7 @@
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,11 +486,11 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -501,6 +504,9 @@
       <c r="J2" t="s">
         <v>8</v>
       </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -513,6 +519,9 @@
       <c r="J3" t="s">
         <v>9</v>
       </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -528,6 +537,9 @@
       <c r="J5" t="s">
         <v>10</v>
       </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -539,6 +551,9 @@
       </c>
       <c r="J6" t="s">
         <v>11</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
       </c>
       <c r="L6" s="3"/>
     </row>
